--- a/data/trans_orig/IP2901-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2901-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E9086CC-9AC3-4C43-8C49-FE24DFA0FA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{038D62D6-5284-4304-946A-3F2A2829BC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B246BC5-1C34-4834-A47D-D718CA753FDC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0576A0F2-B411-4CB0-9AB0-83EF1F738089}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="340">
   <si>
     <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2007 (Tasa respuesta: 98,24%)</t>
   </si>
@@ -106,931 +106,928 @@
     <t>20,4%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2015 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>10,25%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>7,4%</t>
+    <t>7,35%</t>
   </si>
   <si>
     <t>9,79%</t>
@@ -1039,28 +1036,28 @@
     <t>78,17%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F8E831-51B8-43BC-BCAA-11547B487CC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1C69F0-F6DA-4404-BE6B-3EF2FCD6DC24}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2242,7 +2239,7 @@
         <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2254,13 @@
         <v>8774</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2272,13 +2269,13 @@
         <v>11005</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -2287,13 +2284,13 @@
         <v>19778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,13 +2305,13 @@
         <v>122944</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>186</v>
@@ -2323,13 +2320,13 @@
         <v>127306</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>369</v>
@@ -2338,13 +2335,13 @@
         <v>250249</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2409,13 @@
         <v>134759</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -2427,13 +2424,13 @@
         <v>119941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -2442,13 +2439,13 @@
         <v>254700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,13 +2460,13 @@
         <v>48675</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -2478,13 +2475,13 @@
         <v>38146</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>130</v>
@@ -2493,13 +2490,13 @@
         <v>86821</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2511,13 @@
         <v>525713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>762</v>
@@ -2529,13 +2526,13 @@
         <v>510893</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>1553</v>
@@ -2544,13 +2541,13 @@
         <v>1036605</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2603,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984A015D-8C97-4352-B5EB-A1E198FF8293}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A38C857-94D2-416D-9EC0-CBEE90571C44}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2643,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,13 +2945,13 @@
         <v>21875</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -2963,13 +2960,13 @@
         <v>22170</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
@@ -2978,13 +2975,13 @@
         <v>44045</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2996,13 @@
         <v>6132</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -3014,13 +3011,13 @@
         <v>10063</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -3029,13 +3026,13 @@
         <v>16195</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3047,13 @@
         <v>55644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -3065,13 +3062,13 @@
         <v>58769</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -3080,13 +3077,13 @@
         <v>114412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3151,13 @@
         <v>127903</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H12" s="7">
         <v>149</v>
@@ -3169,13 +3166,13 @@
         <v>102364</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M12" s="7">
         <v>335</v>
@@ -3184,13 +3181,13 @@
         <v>230267</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3202,13 @@
         <v>30120</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -3220,13 +3217,13 @@
         <v>31985</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -3235,13 +3232,13 @@
         <v>62105</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3253,13 @@
         <v>331599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>456</v>
@@ -3271,13 +3268,13 @@
         <v>315822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>928</v>
@@ -3444,10 +3441,10 @@
         <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3459,13 @@
         <v>106276</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>173</v>
@@ -3477,13 +3474,13 @@
         <v>123435</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M18" s="7">
         <v>324</v>
@@ -3492,13 +3489,13 @@
         <v>229711</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3563,13 @@
         <v>187178</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -3581,13 +3578,13 @@
         <v>151808</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>492</v>
@@ -3596,13 +3593,13 @@
         <v>338985</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3614,13 @@
         <v>60435</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -3632,13 +3629,13 @@
         <v>57543</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M21" s="7">
         <v>170</v>
@@ -3647,13 +3644,13 @@
         <v>117977</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3665,13 @@
         <v>494160</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>714</v>
@@ -3683,13 +3680,13 @@
         <v>498026</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>1415</v>
@@ -3698,13 +3695,13 @@
         <v>992185</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3757,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3780,7 +3777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8AEBE8-E9D4-4E2F-AA6B-8F83FCB778B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAE551D-7E52-4466-8C09-04F1AD1577A0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3797,7 +3794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4086,13 +4083,13 @@
         <v>12063</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4101,13 +4098,13 @@
         <v>7024</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4116,13 +4113,13 @@
         <v>19087</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4134,13 @@
         <v>2137</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -4152,13 +4149,13 @@
         <v>3852</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -4167,13 +4164,13 @@
         <v>5988</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4185,13 @@
         <v>52893</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4203,13 +4200,13 @@
         <v>47191</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -4218,13 +4215,13 @@
         <v>100085</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4289,13 @@
         <v>65734</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>129</v>
@@ -4310,10 +4307,10 @@
         <v>268</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M12" s="7">
         <v>225</v>
@@ -4322,13 +4319,13 @@
         <v>151184</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4340,13 @@
         <v>44257</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -4379,7 +4376,7 @@
         <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4391,13 @@
         <v>363679</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -4409,13 +4406,13 @@
         <v>338535</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>1029</v>
@@ -4424,13 +4421,13 @@
         <v>702215</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4495,13 @@
         <v>18899</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -4513,13 +4510,13 @@
         <v>17509</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4528,13 +4525,13 @@
         <v>36408</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,10 +4546,10 @@
         <v>15296</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>300</v>
@@ -4567,10 +4564,10 @@
         <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -4579,10 +4576,10 @@
         <v>33328</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>305</v>
@@ -4719,13 +4716,13 @@
         <v>109982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>306</v>
@@ -4734,13 +4731,13 @@
         <v>206679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4752,13 @@
         <v>61689</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>324</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -4770,13 +4767,13 @@
         <v>57883</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -4785,13 +4782,13 @@
         <v>119572</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4803,13 @@
         <v>567182</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H22" s="7">
         <v>786</v>
@@ -4821,13 +4818,13 @@
         <v>520263</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M22" s="7">
         <v>1595</v>
@@ -4836,13 +4833,13 @@
         <v>1087445</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4895,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
